--- a/Chapter 2/mat1.xlsx
+++ b/Chapter 2/mat1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u02593084\Documents\GitHub\CBI310-version2\Chapter 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aptem\Desktop\CBI 310\CBI310-version2\Chapter 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E6B9F-A460-403F-BC01-37612205787F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F25793D-3A6B-463A-9D25-6A39AA6C4AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1716" yWindow="1068" windowWidth="23040" windowHeight="13800" xr2:uid="{EAE5D61F-C0BD-4D64-B9D4-ED8B43B4F161}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAE5D61F-C0BD-4D64-B9D4-ED8B43B4F161}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,12 +400,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -433,7 +433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-3</v>
       </c>
@@ -447,7 +447,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -461,7 +461,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
